--- a/theoreticalstrassen.xlsx
+++ b/theoreticalstrassen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Dimension</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Strassen</t>
+  </si>
+  <si>
+    <t>Strassen (pad up to next power of 2)</t>
   </si>
 </sst>
 </file>
@@ -69,6 +72,600 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Theoretical Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Regular</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9537</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Onepad (to next power of 2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Multipad (p0=2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="86692992"/>
+        <c:axId val="86683008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86692992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86683008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86683008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86692992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,9 +964,11 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +978,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -391,8 +999,21 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2*(2*E2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -404,8 +1025,23 @@
         <f>7*MIN(B2,C2)+(9/2*A3*A3)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">E3*E3*(2*E3-1)</f>
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <f>7*MIN(F2,G2)+(9/2*E3*E3)</f>
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <f>7*MIN(F2,H2)+(9/2*E3*E3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
@@ -414,11 +1050,24 @@
         <v>112</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="1">7*MIN(B3,C3)+(9/2*A4*A4)</f>
+        <f t="shared" ref="C4:C13" si="2">7*MIN(B3,C3)+(9/2*A4*A4)</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>8</v>
       </c>
@@ -427,11 +1076,26 @@
         <v>960</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1072</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="G5">
+        <f>7*MIN(F3,G3)+(9/2*E5*E5)</f>
+        <v>156</v>
+      </c>
+      <c r="H5">
+        <f>7*MIN(F3,H3)+(9/2*E5*E5)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>16</v>
       </c>
@@ -440,11 +1104,24 @@
         <v>7936</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7872</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G6">
+        <v>1072</v>
+      </c>
+      <c r="H6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>32</v>
       </c>
@@ -453,11 +1130,25 @@
         <v>64512</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59712</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="G7">
+        <v>1072</v>
+      </c>
+      <c r="H7">
+        <f>7*MIN(F4,H4)+(9/2*E7*E7)</f>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>64</v>
       </c>
@@ -466,11 +1157,24 @@
         <v>520192</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436416</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>637</v>
+      </c>
+      <c r="G8">
+        <v>1072</v>
+      </c>
+      <c r="H8">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>128</v>
       </c>
@@ -479,11 +1183,26 @@
         <v>4177920</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3128640</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+      <c r="G9">
+        <f>7*MIN(F5,G5)+(9/2*E9*E9)</f>
+        <v>1072</v>
+      </c>
+      <c r="H9">
+        <f>7*MIN(F5,H5)+(9/2*E9*E9)</f>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>256</v>
       </c>
@@ -492,11 +1211,24 @@
         <v>33488896</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22195392</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1377</v>
+      </c>
+      <c r="G10">
+        <v>7872</v>
+      </c>
+      <c r="H10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>512</v>
       </c>
@@ -505,11 +1237,25 @@
         <v>268173312</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156547392</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="G11">
+        <v>7872</v>
+      </c>
+      <c r="H11">
+        <f>7*MIN(F6,H6)+(9/2*E11*E11)</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -518,11 +1264,24 @@
         <v>2146435072</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100550336</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2541</v>
+      </c>
+      <c r="G12">
+        <v>7872</v>
+      </c>
+      <c r="H12">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2048</v>
       </c>
@@ -531,11 +1290,25 @@
         <v>17175674880</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7722726720</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3312</v>
+      </c>
+      <c r="G13">
+        <v>7872</v>
+      </c>
+      <c r="H13">
+        <f>7*MIN(F7,H7)+(9/2*E13*E13)</f>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>4196</v>
       </c>
@@ -547,9 +1320,133 @@
         <f>7*MIN(B13,C13)+(9/2*A14*A14)</f>
         <v>54138315912</v>
       </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4225</v>
+      </c>
+      <c r="G14">
+        <v>7872</v>
+      </c>
+      <c r="H14">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5292</v>
+      </c>
+      <c r="G15">
+        <v>7872</v>
+      </c>
+      <c r="H15">
+        <f>7*MIN(F8,H8)+(9/2*E15*E15)</f>
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6525</v>
+      </c>
+      <c r="G16">
+        <v>7872</v>
+      </c>
+      <c r="H16">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>7936</v>
+      </c>
+      <c r="G17">
+        <f>7*MIN(F9,G9)+(9/2*E17*E17)</f>
+        <v>7872</v>
+      </c>
+      <c r="H17">
+        <f>7*MIN(F9,H9)+(9/2*E17*E17)</f>
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>9537</v>
+      </c>
+      <c r="G18">
+        <v>59712</v>
+      </c>
+      <c r="H18">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G19">
+        <v>59712</v>
+      </c>
+      <c r="H19">
+        <f>7*MIN(F10,H10)+(9/2*E19*E19)</f>
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>13357</v>
+      </c>
+      <c r="G20">
+        <v>59712</v>
+      </c>
+      <c r="H20">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="G21">
+        <v>59712</v>
+      </c>
+      <c r="H21">
+        <f>7*MIN(F11,H11)+(9/2*E21*E21)</f>
+        <v>15100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
